--- a/ipdps16/data/savings.xlsx
+++ b/ipdps16/data/savings.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17540" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17540" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="energy" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,8 @@
     <sheet name="power2" sheetId="11" r:id="rId4"/>
     <sheet name="energy_tp" sheetId="13" r:id="rId5"/>
     <sheet name="power_tp" sheetId="14" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="15" r:id="rId7"/>
-    <sheet name="Sheet1 (2)" sheetId="16" r:id="rId8"/>
+    <sheet name="histo_tk1" sheetId="15" r:id="rId7"/>
+    <sheet name="histo_k80" sheetId="18" r:id="rId8"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -616,21 +616,12 @@
     <t>Throughput/Energy</t>
   </si>
   <si>
-    <t>Throughput/Energy^2</t>
-  </si>
-  <si>
-    <t>Throughput^2/Energy</t>
-  </si>
-  <si>
     <t>Throughput/(Max Power)</t>
   </si>
   <si>
     <t>Throughput/(Max Power)^2</t>
   </si>
   <si>
-    <t>Throughput^2/(Max Power)</t>
-  </si>
-  <si>
     <t>10M</t>
   </si>
   <si>
@@ -680,6 +671,15 @@
   </si>
   <si>
     <t>LONG</t>
+  </si>
+  <si>
+    <t>Throughput/(Energy)^2</t>
+  </si>
+  <si>
+    <t>(Throughput)^2/Energy</t>
+  </si>
+  <si>
+    <t>(Throughput)^2/(Max Power)</t>
   </si>
 </sst>
 </file>
@@ -728,8 +728,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -758,7 +760,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -771,6 +773,7 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -783,6 +786,7 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -815,7 +819,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Energy Saving  for Jetson TK1  (Throughput/energy)</a:t>
+              <a:t>Energy Saving for Jetson TK1  (Throughput/energy)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1418,11 +1422,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2091164712"/>
-        <c:axId val="2091161880"/>
+        <c:axId val="2109178216"/>
+        <c:axId val="2109184824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2091164712"/>
+        <c:axId val="2109178216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1450,7 +1454,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="2091161880"/>
+        <c:crossAx val="2109184824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1458,7 +1462,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2091161880"/>
+        <c:axId val="2109184824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1488,7 +1492,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091164712"/>
+        <c:crossAx val="2109178216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1540,7 +1544,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2138,11 +2141,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2090875144"/>
-        <c:axId val="2090869656"/>
+        <c:axId val="2107727320"/>
+        <c:axId val="2107721832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2090875144"/>
+        <c:axId val="2107727320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2164,13 +2167,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="2090869656"/>
+        <c:crossAx val="2107721832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2178,7 +2180,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2090869656"/>
+        <c:axId val="2107721832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2201,21 +2203,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090875144"/>
+        <c:crossAx val="2107727320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2858,11 +2858,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2092363624"/>
-        <c:axId val="2092369096"/>
+        <c:axId val="2107675384"/>
+        <c:axId val="2107669896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2092363624"/>
+        <c:axId val="2107675384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2890,7 +2890,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="2092369096"/>
+        <c:crossAx val="2107669896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2898,7 +2898,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2092369096"/>
+        <c:axId val="2107669896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2928,7 +2928,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2092363624"/>
+        <c:crossAx val="2107675384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3578,11 +3578,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2092403464"/>
-        <c:axId val="2092408936"/>
+        <c:axId val="2110019352"/>
+        <c:axId val="2110024824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2092403464"/>
+        <c:axId val="2110019352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3610,7 +3610,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="2092408936"/>
+        <c:crossAx val="2110024824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3618,7 +3618,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2092408936"/>
+        <c:axId val="2110024824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3648,7 +3648,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2092403464"/>
+        <c:crossAx val="2110019352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3691,17 +3691,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="2400"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2400"/>
               <a:t>Histogram of</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Frequency Selected on Jeston TK1</a:t>
+              <a:rPr lang="en-US" sz="2400" baseline="0"/>
+              <a:t> Selected Frequencies on Jetson TK1</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="2400"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3720,7 +3720,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>histo_tk1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3729,10 +3729,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:f>histo_tk1!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3786,7 +3791,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$16</c:f>
+              <c:f>histo_tk1!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3844,19 +3849,24 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>histo_tk1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Throughput/Energy^2</c:v>
+                  <c:v>Throughput/(Energy)^2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:f>histo_tk1!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3910,7 +3920,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$16</c:f>
+              <c:f>histo_tk1!$C$2:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3968,19 +3978,24 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>histo_tk1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Throughput^2/Energy</c:v>
+                  <c:v>(Throughput)^2/Energy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:f>histo_tk1!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4034,7 +4049,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$16</c:f>
+              <c:f>histo_tk1!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4092,7 +4107,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>histo_tk1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4101,10 +4116,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:f>histo_tk1!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4158,7 +4178,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$16</c:f>
+              <c:f>histo_tk1!$E$2:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4216,7 +4236,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>histo_tk1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4225,10 +4245,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:f>histo_tk1!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4282,7 +4307,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$16</c:f>
+              <c:f>histo_tk1!$F$2:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4340,19 +4365,24 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>histo_tk1!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Throughput^2/(Max Power)</c:v>
+                  <c:v>(Throughput)^2/(Max Power)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:f>histo_tk1!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4406,7 +4436,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$16</c:f>
+              <c:f>histo_tk1!$G$2:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4468,11 +4498,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2102464408"/>
-        <c:axId val="2102459880"/>
+        <c:axId val="2109289960"/>
+        <c:axId val="2109295848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2102464408"/>
+        <c:axId val="2109289960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4485,17 +4515,17 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000" b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="2000" b="0"/>
                   <a:t>Frequency</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (mHz)</a:t>
+                  <a:rPr lang="en-US" sz="2000" b="0" baseline="0"/>
+                  <a:t> (MHz)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="2000" b="0"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4506,7 +4536,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102459880"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2109295848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4514,7 +4554,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2102459880"/>
+        <c:axId val="2109295848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4528,10 +4568,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000" b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="2000" b="0"/>
                   <a:t>Number of Inputs</a:t>
                 </a:r>
               </a:p>
@@ -4544,15 +4584,44 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102464408"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2109289960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0755000690703136"/>
+          <c:y val="0.105570537449053"/>
+          <c:w val="0.724499930929686"/>
+          <c:h val="0.0853338787197055"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -4597,17 +4666,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="2400"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Histogram  of</a:t>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Histogram of</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Frequency  Selected on Tesla K80</a:t>
+              <a:rPr lang="en-US" sz="2400" baseline="0"/>
+              <a:t> Selected Frequencies on Tesla K80</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="2400"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4626,7 +4695,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$B$1</c:f>
+              <c:f>histo_k80!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4635,10 +4704,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$A$2:$A$26</c:f>
+              <c:f>histo_k80!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -4722,7 +4796,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$B$2:$B$26</c:f>
+              <c:f>histo_k80!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -4810,19 +4884,24 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$C$1</c:f>
+              <c:f>histo_k80!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Throughput/Energy^2</c:v>
+                  <c:v>Throughput/(Energy)^2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$A$2:$A$26</c:f>
+              <c:f>histo_k80!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -4906,7 +4985,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$C$2:$C$26</c:f>
+              <c:f>histo_k80!$C$2:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -4994,19 +5073,24 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$D$1</c:f>
+              <c:f>histo_k80!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Throughput^2/Energy</c:v>
+                  <c:v>(Throughput)^2/Energy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$A$2:$A$26</c:f>
+              <c:f>histo_k80!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -5090,7 +5174,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$D$2:$D$26</c:f>
+              <c:f>histo_k80!$D$2:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -5178,7 +5262,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$E$1</c:f>
+              <c:f>histo_k80!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5187,10 +5271,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$A$2:$A$26</c:f>
+              <c:f>histo_k80!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -5274,7 +5363,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$E$2:$E$26</c:f>
+              <c:f>histo_k80!$E$2:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -5362,7 +5451,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$F$1</c:f>
+              <c:f>histo_k80!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5371,10 +5460,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$A$2:$A$26</c:f>
+              <c:f>histo_k80!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -5458,7 +5552,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$F$2:$F$26</c:f>
+              <c:f>histo_k80!$F$2:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -5546,19 +5640,24 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet1 (2)'!$G$1</c:f>
+              <c:f>histo_k80!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Throughput^2/(Max Power)</c:v>
+                  <c:v>(Throughput)^2/(Max Power)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$A$2:$A$26</c:f>
+              <c:f>histo_k80!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -5642,7 +5741,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet1 (2)'!$G$2:$G$26</c:f>
+              <c:f>histo_k80!$G$2:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -5734,11 +5833,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2108855656"/>
-        <c:axId val="2108849768"/>
+        <c:axId val="-2109991400"/>
+        <c:axId val="-2110129320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2108855656"/>
+        <c:axId val="-2109991400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5751,17 +5850,17 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000" b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="2000" b="0"/>
                   <a:t>Frequency</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (mHz)</a:t>
+                  <a:rPr lang="en-US" sz="2000" b="0" baseline="0"/>
+                  <a:t> (MHz)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="2000" b="0"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5772,7 +5871,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108849768"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2110129320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5780,7 +5889,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2108849768"/>
+        <c:axId val="-2110129320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5794,10 +5903,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2000" b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="2000" b="0"/>
                   <a:t>Number of Inputs</a:t>
                 </a:r>
               </a:p>
@@ -5810,15 +5919,44 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108855656"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2109991400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0755000690703136"/>
+          <c:y val="0.100004674740333"/>
+          <c:w val="0.724499930929686"/>
+          <c:h val="0.0853338787197055"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -6470,11 +6608,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2091093976"/>
-        <c:axId val="2091088488"/>
+        <c:axId val="2109259336"/>
+        <c:axId val="2109264808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2091093976"/>
+        <c:axId val="2109259336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6502,7 +6640,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="2091088488"/>
+        <c:crossAx val="2109264808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6510,7 +6648,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2091088488"/>
+        <c:axId val="2109264808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6540,7 +6678,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091093976"/>
+        <c:crossAx val="2109259336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7190,11 +7328,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2048811672"/>
-        <c:axId val="2048817144"/>
+        <c:axId val="2108526536"/>
+        <c:axId val="2108532008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2048811672"/>
+        <c:axId val="2108526536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7222,7 +7360,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="2048817144"/>
+        <c:crossAx val="2108532008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7230,7 +7368,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2048817144"/>
+        <c:axId val="2108532008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16.0"/>
@@ -7261,7 +7399,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2048811672"/>
+        <c:crossAx val="2108526536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7911,11 +8049,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2048851608"/>
-        <c:axId val="2048857080"/>
+        <c:axId val="2108570792"/>
+        <c:axId val="2108576264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2048851608"/>
+        <c:axId val="2108570792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7943,7 +8081,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="2048857080"/>
+        <c:crossAx val="2108576264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7951,7 +8089,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2048857080"/>
+        <c:axId val="2108576264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7981,7 +8119,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2048851608"/>
+        <c:crossAx val="2108570792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8631,11 +8769,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2048898680"/>
-        <c:axId val="2048287880"/>
+        <c:axId val="2108621912"/>
+        <c:axId val="2108627384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2048898680"/>
+        <c:axId val="2108621912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8663,7 +8801,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="2048287880"/>
+        <c:crossAx val="2108627384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8671,7 +8809,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2048287880"/>
+        <c:axId val="2108627384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8701,7 +8839,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2048898680"/>
+        <c:crossAx val="2108621912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8753,7 +8891,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9351,11 +9488,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2091056872"/>
-        <c:axId val="2091051400"/>
+        <c:axId val="2108665816"/>
+        <c:axId val="2107914248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2091056872"/>
+        <c:axId val="2108665816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9377,13 +9514,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="2091051400"/>
+        <c:crossAx val="2107914248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9391,7 +9527,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2091051400"/>
+        <c:axId val="2107914248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9414,21 +9550,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091056872"/>
+        <c:crossAx val="2108665816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10071,11 +10205,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2091002584"/>
-        <c:axId val="2090997096"/>
+        <c:axId val="2107868328"/>
+        <c:axId val="2107862840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2091002584"/>
+        <c:axId val="2107868328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10103,7 +10237,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="2090997096"/>
+        <c:crossAx val="2107862840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10111,7 +10245,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2090997096"/>
+        <c:axId val="2107862840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10141,7 +10275,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091002584"/>
+        <c:crossAx val="2107868328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10791,11 +10925,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2090962392"/>
-        <c:axId val="2090956904"/>
+        <c:axId val="2107824024"/>
+        <c:axId val="2107818536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2090962392"/>
+        <c:axId val="2107824024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10823,7 +10957,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="2090956904"/>
+        <c:crossAx val="2107818536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10831,7 +10965,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2090956904"/>
+        <c:axId val="2107818536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10861,7 +10995,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090962392"/>
+        <c:crossAx val="2107824024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10913,7 +11047,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11511,11 +11644,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2090915224"/>
-        <c:axId val="2090909736"/>
+        <c:axId val="2107772232"/>
+        <c:axId val="2107766744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2090915224"/>
+        <c:axId val="2107772232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11537,13 +11670,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="2090909736"/>
+        <c:crossAx val="2107766744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11551,7 +11683,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2090909736"/>
+        <c:axId val="2107766744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11574,21 +11706,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090915224"/>
+        <c:crossAx val="2107772232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12020,13 +12150,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:colOff>584200</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
@@ -12055,13 +12185,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:colOff>584200</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
@@ -12411,8 +12541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12444,10 +12574,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12461,10 +12591,10 @@
         <v>6.9856817724400004</v>
       </c>
       <c r="D3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -12478,10 +12608,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -12495,10 +12625,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -12512,10 +12642,10 @@
         <v>8.72535620811</v>
       </c>
       <c r="D6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -12529,10 +12659,10 @@
         <v>8.0093646157999991</v>
       </c>
       <c r="D7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -12546,10 +12676,10 @@
         <v>10.2381432841</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -12563,10 +12693,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -12580,10 +12710,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -12597,10 +12727,10 @@
         <v>10.4414411588</v>
       </c>
       <c r="D11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -12614,10 +12744,10 @@
         <v>7.10845468683</v>
       </c>
       <c r="D12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -12631,10 +12761,10 @@
         <v>6.0690799419900001</v>
       </c>
       <c r="D13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -12648,10 +12778,10 @@
         <v>14.612296671899999</v>
       </c>
       <c r="D14" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -12665,10 +12795,10 @@
         <v>6.1472601051</v>
       </c>
       <c r="D15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E15" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -12682,10 +12812,10 @@
         <v>3.8552656026799998</v>
       </c>
       <c r="D16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -12699,10 +12829,10 @@
         <v>2.5709549111799999</v>
       </c>
       <c r="D17" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E17" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -12716,10 +12846,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E18" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -12733,10 +12863,10 @@
         <v>7.5971007889299997</v>
       </c>
       <c r="D19" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E19" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -12750,10 +12880,10 @@
         <v>7.1027311043800001</v>
       </c>
       <c r="D20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E20" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -12767,10 +12897,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E21" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -12784,10 +12914,10 @@
         <v>7.9568868630300003</v>
       </c>
       <c r="D22" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E22" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -12801,10 +12931,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E23" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -12818,10 +12948,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" t="s">
         <v>213</v>
-      </c>
-      <c r="E24" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -12835,10 +12965,10 @@
         <v>13.811115778</v>
       </c>
       <c r="D25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -12852,10 +12982,10 @@
         <v>7.1819415929200003</v>
       </c>
       <c r="D26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -12869,10 +12999,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E27" t="s">
         <v>214</v>
-      </c>
-      <c r="E27" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -12886,10 +13016,10 @@
         <v>13.526917159</v>
       </c>
       <c r="D28" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E28" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -12903,10 +13033,10 @@
         <v>3.7697320681800002</v>
       </c>
       <c r="D29" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E29" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -12936,10 +13066,10 @@
         <v>13.4585761799</v>
       </c>
       <c r="D37" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E37" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -12953,10 +13083,10 @@
         <v>8.7150666627500009</v>
       </c>
       <c r="D38" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E38" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -12970,10 +13100,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E39" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -12987,10 +13117,10 @@
         <v>10.509439540500001</v>
       </c>
       <c r="D40" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E40" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -13004,10 +13134,10 @@
         <v>7.1389928827300002</v>
       </c>
       <c r="D41" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E41" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -13021,10 +13151,10 @@
         <v>10.2267665635</v>
       </c>
       <c r="D42" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E42" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -13038,10 +13168,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E43" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -13055,10 +13185,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E44" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -13072,10 +13202,10 @@
         <v>7.2316711075000004</v>
       </c>
       <c r="D45" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E45" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -13089,10 +13219,10 @@
         <v>6.1487992176599997</v>
       </c>
       <c r="D46" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E46" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -13106,10 +13236,10 @@
         <v>10.4915835148</v>
       </c>
       <c r="D47" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E47" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -13123,10 +13253,10 @@
         <v>8.8012269909400001</v>
       </c>
       <c r="D48" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E48" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -13140,10 +13270,10 @@
         <v>7.6932001291800001</v>
       </c>
       <c r="D49" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E49" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -13157,10 +13287,10 @@
         <v>10.783915085</v>
       </c>
       <c r="D50" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E50" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -13174,10 +13304,10 @@
         <v>11.300000628299999</v>
       </c>
       <c r="D51" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E51" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -13191,10 +13321,10 @@
         <v>8.0028586256699992</v>
       </c>
       <c r="D52" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E52" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -13208,10 +13338,10 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E53" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -13225,10 +13355,10 @@
         <v>5.4970378333000003</v>
       </c>
       <c r="D54" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E54" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -13242,10 +13372,10 @@
         <v>6.6224468404900003</v>
       </c>
       <c r="D55" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E55" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -13259,10 +13389,10 @@
         <v>12.5299514194</v>
       </c>
       <c r="D56" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E56" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -13276,10 +13406,10 @@
         <v>9.2117248673100001</v>
       </c>
       <c r="D57" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E57" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -13293,10 +13423,10 @@
         <v>7.6031698564600001</v>
       </c>
       <c r="D58" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E58" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -13310,10 +13440,10 @@
         <v>4.55781318905</v>
       </c>
       <c r="D59" t="s">
+        <v>210</v>
+      </c>
+      <c r="E59" t="s">
         <v>213</v>
-      </c>
-      <c r="E59" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -13327,10 +13457,10 @@
         <v>6.5278656555800003</v>
       </c>
       <c r="D60" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E60" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -13344,10 +13474,10 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E61" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -13361,10 +13491,10 @@
         <v>0</v>
       </c>
       <c r="D62" t="s">
+        <v>211</v>
+      </c>
+      <c r="E62" t="s">
         <v>214</v>
-      </c>
-      <c r="E62" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -13378,10 +13508,10 @@
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E63" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -13395,15 +13525,14 @@
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E64" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -13417,7 +13546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="B37" sqref="B37:B64"/>
     </sheetView>
   </sheetViews>
@@ -13450,10 +13579,10 @@
         <v>5.2609920347400001</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -13467,10 +13596,10 @@
         <v>6.9856817724400004</v>
       </c>
       <c r="D3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -13484,10 +13613,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -13501,10 +13630,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -13518,10 +13647,10 @@
         <v>8.72535620811</v>
       </c>
       <c r="D6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -13535,10 +13664,10 @@
         <v>8.0093646157999991</v>
       </c>
       <c r="D7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -13552,10 +13681,10 @@
         <v>10.2381432841</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -13569,10 +13698,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -13586,10 +13715,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -13603,10 +13732,10 @@
         <v>10.4414411588</v>
       </c>
       <c r="D11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -13620,10 +13749,10 @@
         <v>7.10845468683</v>
       </c>
       <c r="D12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -13637,10 +13766,10 @@
         <v>9.2077583578500004</v>
       </c>
       <c r="D13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -13654,10 +13783,10 @@
         <v>17.182594729000002</v>
       </c>
       <c r="D14" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -13671,10 +13800,10 @@
         <v>8.6652030630199999</v>
       </c>
       <c r="D15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E15" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -13688,10 +13817,10 @@
         <v>3.8552656026799998</v>
       </c>
       <c r="D16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -13705,10 +13834,10 @@
         <v>2.5709549111799999</v>
       </c>
       <c r="D17" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E17" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -13722,10 +13851,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E18" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -13739,10 +13868,10 @@
         <v>7.5971007889299997</v>
       </c>
       <c r="D19" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E19" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -13756,10 +13885,10 @@
         <v>7.1027311043800001</v>
       </c>
       <c r="D20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E20" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -13773,10 +13902,10 @@
         <v>4.5655650769299996</v>
       </c>
       <c r="D21" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E21" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -13790,10 +13919,10 @@
         <v>7.9568868630300003</v>
       </c>
       <c r="D22" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E22" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -13807,10 +13936,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E23" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -13824,10 +13953,10 @@
         <v>3.0888745104800002</v>
       </c>
       <c r="D24" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" t="s">
         <v>213</v>
-      </c>
-      <c r="E24" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -13841,10 +13970,10 @@
         <v>13.811115778</v>
       </c>
       <c r="D25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -13858,10 +13987,10 @@
         <v>7.1819415929200003</v>
       </c>
       <c r="D26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -13875,10 +14004,10 @@
         <v>6.8516725234000004</v>
       </c>
       <c r="D27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E27" t="s">
         <v>214</v>
-      </c>
-      <c r="E27" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -13892,10 +14021,10 @@
         <v>13.526917159</v>
       </c>
       <c r="D28" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E28" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -13909,10 +14038,10 @@
         <v>3.7697320681800002</v>
       </c>
       <c r="D29" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E29" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -13942,10 +14071,10 @@
         <v>13.4585761799</v>
       </c>
       <c r="D37" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E37" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -13959,10 +14088,10 @@
         <v>8.7150666627500009</v>
       </c>
       <c r="D38" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E38" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -13976,10 +14105,10 @@
         <v>5.9117232052200004</v>
       </c>
       <c r="D39" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E39" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -13993,10 +14122,10 @@
         <v>10.509439540500001</v>
       </c>
       <c r="D40" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E40" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -14010,10 +14139,10 @@
         <v>10.364099298299999</v>
       </c>
       <c r="D41" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E41" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -14027,10 +14156,10 @@
         <v>10.2267665635</v>
       </c>
       <c r="D42" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E42" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -14044,10 +14173,10 @@
         <v>1.8144009572899999</v>
       </c>
       <c r="D43" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E43" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -14061,10 +14190,10 @@
         <v>4.70261828748</v>
       </c>
       <c r="D44" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E44" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -14078,10 +14207,10 @@
         <v>7.2316711075000004</v>
       </c>
       <c r="D45" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E45" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -14095,10 +14224,10 @@
         <v>6.1487992176599997</v>
       </c>
       <c r="D46" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E46" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -14112,10 +14241,10 @@
         <v>14.9501799241</v>
       </c>
       <c r="D47" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E47" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -14129,10 +14258,10 @@
         <v>8.8012269909400001</v>
       </c>
       <c r="D48" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E48" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -14146,10 +14275,10 @@
         <v>14.2910021406</v>
       </c>
       <c r="D49" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E49" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -14163,10 +14292,10 @@
         <v>10.783915085</v>
       </c>
       <c r="D50" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E50" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -14180,10 +14309,10 @@
         <v>11.300000628299999</v>
       </c>
       <c r="D51" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E51" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -14197,10 +14326,10 @@
         <v>9.8401937425200003</v>
       </c>
       <c r="D52" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E52" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -14214,10 +14343,10 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E53" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -14231,10 +14360,10 @@
         <v>5.4970378333000003</v>
       </c>
       <c r="D54" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E54" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -14248,10 +14377,10 @@
         <v>6.6224468404900003</v>
       </c>
       <c r="D55" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E55" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -14265,10 +14394,10 @@
         <v>12.5299514194</v>
       </c>
       <c r="D56" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E56" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -14282,10 +14411,10 @@
         <v>12.786167276900001</v>
       </c>
       <c r="D57" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E57" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -14299,10 +14428,10 @@
         <v>9.3508465215300003</v>
       </c>
       <c r="D58" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E58" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -14316,10 +14445,10 @@
         <v>8.9682157714600006</v>
       </c>
       <c r="D59" t="s">
+        <v>210</v>
+      </c>
+      <c r="E59" t="s">
         <v>213</v>
-      </c>
-      <c r="E59" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -14333,10 +14462,10 @@
         <v>6.5278656555800003</v>
       </c>
       <c r="D60" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E60" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -14350,10 +14479,10 @@
         <v>4.5053653697199998</v>
       </c>
       <c r="D61" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E61" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -14367,10 +14496,10 @@
         <v>2.9913280629700001</v>
       </c>
       <c r="D62" t="s">
+        <v>211</v>
+      </c>
+      <c r="E62" t="s">
         <v>214</v>
-      </c>
-      <c r="E62" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -14384,10 +14513,10 @@
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E63" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -14401,15 +14530,14 @@
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E64" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -14456,10 +14584,10 @@
         <v>22.268311734000001</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -14473,10 +14601,10 @@
         <v>23.598481594399999</v>
       </c>
       <c r="D3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -14490,10 +14618,10 @@
         <v>23.000696377600001</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -14507,10 +14635,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -14524,10 +14652,10 @@
         <v>20.9144596581</v>
       </c>
       <c r="D6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -14541,10 +14669,10 @@
         <v>13.259007004900001</v>
       </c>
       <c r="D7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -14558,10 +14686,10 @@
         <v>36.692995731000003</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -14575,10 +14703,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -14592,10 +14720,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -14609,10 +14737,10 @@
         <v>12.3007273387</v>
       </c>
       <c r="D11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -14626,10 +14754,10 @@
         <v>32.097003396700003</v>
       </c>
       <c r="D12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -14643,10 +14771,10 @@
         <v>16.083852431099999</v>
       </c>
       <c r="D13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -14660,10 +14788,10 @@
         <v>39.231835603</v>
       </c>
       <c r="D14" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -14677,10 +14805,10 @@
         <v>24.397087938199999</v>
       </c>
       <c r="D15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E15" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -14694,10 +14822,10 @@
         <v>2.9563628358199998</v>
       </c>
       <c r="D16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -14711,10 +14839,10 @@
         <v>2.8397278812</v>
       </c>
       <c r="D17" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E17" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -14728,10 +14856,10 @@
         <v>18.0418260597</v>
       </c>
       <c r="D18" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E18" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -14745,10 +14873,10 @@
         <v>21.495840399799999</v>
       </c>
       <c r="D19" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E19" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -14762,10 +14890,10 @@
         <v>29.606759524299999</v>
       </c>
       <c r="D20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E20" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -14779,10 +14907,10 @@
         <v>16.773605875099999</v>
       </c>
       <c r="D21" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E21" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -14796,10 +14924,10 @@
         <v>9.3823004656200002</v>
       </c>
       <c r="D22" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E22" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -14813,10 +14941,10 @@
         <v>14.0664169142</v>
       </c>
       <c r="D23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E23" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -14830,10 +14958,10 @@
         <v>22.718320211399998</v>
       </c>
       <c r="D24" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" t="s">
         <v>213</v>
-      </c>
-      <c r="E24" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -14847,10 +14975,10 @@
         <v>15.2488922674</v>
       </c>
       <c r="D25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -14864,10 +14992,10 @@
         <v>27.2377098895</v>
       </c>
       <c r="D26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -14881,10 +15009,10 @@
         <v>16.145437510200001</v>
       </c>
       <c r="D27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E27" t="s">
         <v>214</v>
-      </c>
-      <c r="E27" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -14898,10 +15026,10 @@
         <v>7.3940763064599997</v>
       </c>
       <c r="D28" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E28" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -14915,10 +15043,10 @@
         <v>2.2566312277699998</v>
       </c>
       <c r="D29" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E29" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -14943,10 +15071,10 @@
         <v>21.448167610700001</v>
       </c>
       <c r="D37" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E37" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -14960,10 +15088,10 @@
         <v>22.9262794548</v>
       </c>
       <c r="D38" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E38" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -14977,10 +15105,10 @@
         <v>23.624234849499999</v>
       </c>
       <c r="D39" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E39" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -14994,10 +15122,10 @@
         <v>22.7821819555</v>
       </c>
       <c r="D40" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E40" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -15011,10 +15139,10 @@
         <v>10.779014308400001</v>
       </c>
       <c r="D41" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E41" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -15028,10 +15156,10 @@
         <v>11.052173552699999</v>
       </c>
       <c r="D42" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E42" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -15045,10 +15173,10 @@
         <v>9.5541656108699993</v>
       </c>
       <c r="D43" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E43" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -15062,10 +15190,10 @@
         <v>9.4215266654400001</v>
       </c>
       <c r="D44" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E44" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -15079,10 +15207,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E45" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -15096,10 +15224,10 @@
         <v>6.8703142669700004</v>
       </c>
       <c r="D46" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E46" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -15113,10 +15241,10 @@
         <v>21.461846735999998</v>
       </c>
       <c r="D47" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E47" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -15130,10 +15258,10 @@
         <v>22.998809830399999</v>
       </c>
       <c r="D48" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E48" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -15147,10 +15275,10 @@
         <v>21.752592019200002</v>
       </c>
       <c r="D49" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E49" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -15164,10 +15292,10 @@
         <v>22.701734160200001</v>
       </c>
       <c r="D50" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E50" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -15181,10 +15309,10 @@
         <v>22.014345187299998</v>
       </c>
       <c r="D51" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E51" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -15198,10 +15326,10 @@
         <v>23.003958851099998</v>
       </c>
       <c r="D52" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E52" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -15215,10 +15343,10 @@
         <v>11.916706105099999</v>
       </c>
       <c r="D53" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E53" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -15232,10 +15360,10 @@
         <v>15.102149346299999</v>
       </c>
       <c r="D54" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E54" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -15249,10 +15377,10 @@
         <v>9.59367088608</v>
       </c>
       <c r="D55" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E55" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -15266,10 +15394,10 @@
         <v>7.6346923142399996</v>
       </c>
       <c r="D56" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E56" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -15283,10 +15411,10 @@
         <v>24.365273804800001</v>
       </c>
       <c r="D57" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E57" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -15300,10 +15428,10 @@
         <v>23.3592264348</v>
       </c>
       <c r="D58" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E58" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -15317,10 +15445,10 @@
         <v>15.6210019108</v>
       </c>
       <c r="D59" t="s">
+        <v>210</v>
+      </c>
+      <c r="E59" t="s">
         <v>213</v>
-      </c>
-      <c r="E59" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -15334,10 +15462,10 @@
         <v>22.537094617499999</v>
       </c>
       <c r="D60" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E60" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -15351,10 +15479,10 @@
         <v>8.9920232052200006</v>
       </c>
       <c r="D61" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E61" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -15368,10 +15496,10 @@
         <v>8.0177440947599994</v>
       </c>
       <c r="D62" t="s">
+        <v>211</v>
+      </c>
+      <c r="E62" t="s">
         <v>214</v>
-      </c>
-      <c r="E62" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -15385,10 +15513,10 @@
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E63" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -15402,15 +15530,14 @@
         <v>4.5920846606600003</v>
       </c>
       <c r="D64" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E64" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -15457,10 +15584,10 @@
         <v>40.825153662799998</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -15474,10 +15601,10 @@
         <v>50.965325802199999</v>
       </c>
       <c r="D3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -15491,10 +15618,10 @@
         <v>26.916338326799998</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -15508,10 +15635,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -15525,10 +15652,10 @@
         <v>20.9144596581</v>
       </c>
       <c r="D6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -15542,10 +15669,10 @@
         <v>31.158817149200001</v>
       </c>
       <c r="D7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -15559,10 +15686,10 @@
         <v>36.692995731000003</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -15576,10 +15703,10 @@
         <v>31.284811329699998</v>
       </c>
       <c r="D9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -15593,10 +15720,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -15610,10 +15737,10 @@
         <v>18.126382178299998</v>
       </c>
       <c r="D11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -15627,10 +15754,10 @@
         <v>38.507742685300002</v>
       </c>
       <c r="D12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -15644,10 +15771,10 @@
         <v>38.589753128399998</v>
       </c>
       <c r="D13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -15661,10 +15788,10 @@
         <v>49.939310341000002</v>
       </c>
       <c r="D14" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -15678,10 +15805,10 @@
         <v>40.160155560900002</v>
       </c>
       <c r="D15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E15" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -15695,10 +15822,10 @@
         <v>33.760994382699998</v>
       </c>
       <c r="D16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -15712,10 +15839,10 @@
         <v>2.8397278812</v>
       </c>
       <c r="D17" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E17" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -15729,10 +15856,10 @@
         <v>27.830029399600001</v>
       </c>
       <c r="D18" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E18" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -15746,10 +15873,10 @@
         <v>36.516759823599998</v>
       </c>
       <c r="D19" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E19" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -15763,10 +15890,10 @@
         <v>36.8541042238</v>
       </c>
       <c r="D20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E20" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -15780,10 +15907,10 @@
         <v>29.664776298700001</v>
       </c>
       <c r="D21" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E21" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -15797,10 +15924,10 @@
         <v>35.570692072500002</v>
       </c>
       <c r="D22" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E22" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -15814,10 +15941,10 @@
         <v>35.384010605999997</v>
       </c>
       <c r="D23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E23" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -15831,10 +15958,10 @@
         <v>39.864946906500002</v>
       </c>
       <c r="D24" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" t="s">
         <v>213</v>
-      </c>
-      <c r="E24" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -15848,10 +15975,10 @@
         <v>21.953933128199999</v>
       </c>
       <c r="D25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -15865,10 +15992,10 @@
         <v>38.739033110599998</v>
       </c>
       <c r="D26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -15882,10 +16009,10 @@
         <v>16.145437510200001</v>
       </c>
       <c r="D27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E27" t="s">
         <v>214</v>
-      </c>
-      <c r="E27" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -15899,10 +16026,10 @@
         <v>27.9522761122</v>
       </c>
       <c r="D28" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E28" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -15916,10 +16043,10 @@
         <v>31.279101169</v>
       </c>
       <c r="D29" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E29" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -15944,10 +16071,10 @@
         <v>25.237152801499999</v>
       </c>
       <c r="D37" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E37" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -15961,10 +16088,10 @@
         <v>25.300975661300001</v>
       </c>
       <c r="D38" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E38" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -15978,10 +16105,10 @@
         <v>26.237605125799998</v>
       </c>
       <c r="D39" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E39" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -15995,10 +16122,10 @@
         <v>24.845602113999998</v>
       </c>
       <c r="D40" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E40" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -16012,10 +16139,10 @@
         <v>19.441916561599999</v>
       </c>
       <c r="D41" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E41" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -16029,10 +16156,10 @@
         <v>22.139571505500001</v>
       </c>
       <c r="D42" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E42" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -16046,10 +16173,10 @@
         <v>11.9547097342</v>
       </c>
       <c r="D43" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E43" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -16063,10 +16190,10 @@
         <v>9.4215266654400001</v>
       </c>
       <c r="D44" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E44" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -16080,10 +16207,10 @@
         <v>10.8632219694</v>
       </c>
       <c r="D45" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E45" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -16097,10 +16224,10 @@
         <v>10.8883521577</v>
       </c>
       <c r="D46" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E46" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -16114,10 +16241,10 @@
         <v>25.189359263899998</v>
       </c>
       <c r="D47" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E47" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -16131,10 +16258,10 @@
         <v>25.516958176999999</v>
       </c>
       <c r="D48" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E48" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -16148,10 +16275,10 @@
         <v>24.8039435357</v>
       </c>
       <c r="D49" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E49" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -16165,10 +16292,10 @@
         <v>26.347151518499999</v>
       </c>
       <c r="D50" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E50" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -16182,10 +16309,10 @@
         <v>24.987281364899999</v>
       </c>
       <c r="D51" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E51" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -16199,10 +16326,10 @@
         <v>26.192712246399999</v>
       </c>
       <c r="D52" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E52" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -16216,10 +16343,10 @@
         <v>24.2858495031</v>
       </c>
       <c r="D53" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E53" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -16233,10 +16360,10 @@
         <v>24.094837137199999</v>
       </c>
       <c r="D54" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E54" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -16250,10 +16377,10 @@
         <v>12.582278480999999</v>
       </c>
       <c r="D55" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E55" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -16267,10 +16394,10 @@
         <v>17.625816178899999</v>
       </c>
       <c r="D56" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E56" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -16284,10 +16411,10 @@
         <v>24.365273804800001</v>
       </c>
       <c r="D57" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E57" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -16301,10 +16428,10 @@
         <v>26.532359359800001</v>
       </c>
       <c r="D58" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E58" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -16318,10 +16445,10 @@
         <v>24.8691534435</v>
       </c>
       <c r="D59" t="s">
+        <v>210</v>
+      </c>
+      <c r="E59" t="s">
         <v>213</v>
-      </c>
-      <c r="E59" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -16335,10 +16462,10 @@
         <v>24.612137713300001</v>
       </c>
       <c r="D60" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E60" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -16352,10 +16479,10 @@
         <v>18.028031717000001</v>
       </c>
       <c r="D61" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E61" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -16369,10 +16496,10 @@
         <v>18.834380885400002</v>
       </c>
       <c r="D62" t="s">
+        <v>211</v>
+      </c>
+      <c r="E62" t="s">
         <v>214</v>
-      </c>
-      <c r="E62" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -16386,10 +16513,10 @@
         <v>11.976039696200001</v>
       </c>
       <c r="D63" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E63" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -16403,15 +16530,14 @@
         <v>9.1490740240800008</v>
       </c>
       <c r="D64" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E64" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -16458,10 +16584,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -16475,10 +16601,10 @@
         <v>6.9856817724400004</v>
       </c>
       <c r="D3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -16492,10 +16618,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -16509,10 +16635,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -16526,10 +16652,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -16543,10 +16669,10 @@
         <v>8.0093646157999991</v>
       </c>
       <c r="D7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -16560,10 +16686,10 @@
         <v>10.2381432841</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -16577,10 +16703,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -16594,10 +16720,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -16611,10 +16737,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -16628,10 +16754,10 @@
         <v>7.10845468683</v>
       </c>
       <c r="D12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -16645,10 +16771,10 @@
         <v>6.0690799419900001</v>
       </c>
       <c r="D13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -16662,10 +16788,10 @@
         <v>14.612296671899999</v>
       </c>
       <c r="D14" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -16679,10 +16805,10 @@
         <v>6.1472601051</v>
       </c>
       <c r="D15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E15" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -16696,10 +16822,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -16713,10 +16839,10 @@
         <v>2.5709549111799999</v>
       </c>
       <c r="D17" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E17" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -16730,10 +16856,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E18" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -16747,10 +16873,10 @@
         <v>3.5817837187900001</v>
       </c>
       <c r="D19" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E19" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -16764,10 +16890,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E20" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -16781,10 +16907,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E21" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -16798,10 +16924,10 @@
         <v>7.9568868630300003</v>
       </c>
       <c r="D22" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E22" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -16815,10 +16941,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E23" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -16832,10 +16958,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" t="s">
         <v>213</v>
-      </c>
-      <c r="E24" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -16849,10 +16975,10 @@
         <v>13.811115778</v>
       </c>
       <c r="D25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -16866,10 +16992,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -16883,10 +17009,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E27" t="s">
         <v>214</v>
-      </c>
-      <c r="E27" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -16900,10 +17026,10 @@
         <v>13.526917159</v>
       </c>
       <c r="D28" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E28" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -16917,10 +17043,10 @@
         <v>3.7697320681800002</v>
       </c>
       <c r="D29" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E29" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -16945,10 +17071,10 @@
         <v>6.9083033764600001</v>
       </c>
       <c r="D37" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E37" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -16962,10 +17088,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E38" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -16979,10 +17105,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E39" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -16996,10 +17122,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E40" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -17013,10 +17139,10 @@
         <v>7.1389928827300002</v>
       </c>
       <c r="D41" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E41" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -17030,10 +17156,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E42" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -17047,10 +17173,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E43" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -17064,10 +17190,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E44" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -17081,10 +17207,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E45" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -17098,10 +17224,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E46" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -17115,10 +17241,10 @@
         <v>10.4915835148</v>
       </c>
       <c r="D47" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E47" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -17132,10 +17258,10 @@
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E48" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -17149,10 +17275,10 @@
         <v>7.6932001291800001</v>
       </c>
       <c r="D49" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E49" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -17166,10 +17292,10 @@
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E50" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -17183,10 +17309,10 @@
         <v>7.3233412577800001</v>
       </c>
       <c r="D51" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E51" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -17200,10 +17326,10 @@
         <v>5.15124348302</v>
       </c>
       <c r="D52" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E52" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -17217,10 +17343,10 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E53" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -17234,10 +17360,10 @@
         <v>5.4970378333000003</v>
       </c>
       <c r="D54" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E54" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -17251,10 +17377,10 @@
         <v>6.6224468404900003</v>
       </c>
       <c r="D55" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E55" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -17268,10 +17394,10 @@
         <v>12.5299514194</v>
       </c>
       <c r="D56" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E56" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -17285,10 +17411,10 @@
         <v>9.2117248673100001</v>
       </c>
       <c r="D57" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E57" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -17302,10 +17428,10 @@
         <v>4.5317634170699996</v>
       </c>
       <c r="D58" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E58" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -17319,10 +17445,10 @@
         <v>0</v>
       </c>
       <c r="D59" t="s">
+        <v>210</v>
+      </c>
+      <c r="E59" t="s">
         <v>213</v>
-      </c>
-      <c r="E59" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -17336,10 +17462,10 @@
         <v>6.5278656555800003</v>
       </c>
       <c r="D60" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E60" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -17353,10 +17479,10 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E61" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -17370,10 +17496,10 @@
         <v>0</v>
       </c>
       <c r="D62" t="s">
+        <v>211</v>
+      </c>
+      <c r="E62" t="s">
         <v>214</v>
-      </c>
-      <c r="E62" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -17387,10 +17513,10 @@
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E63" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -17404,15 +17530,14 @@
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E64" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -17426,7 +17551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="AJ21" sqref="AJ21"/>
     </sheetView>
   </sheetViews>
@@ -17459,10 +17584,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -17476,10 +17601,10 @@
         <v>15.972405456300001</v>
       </c>
       <c r="D3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -17493,10 +17618,10 @@
         <v>23.000696377600001</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -17510,10 +17635,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -17527,10 +17652,10 @@
         <v>12.198891839</v>
       </c>
       <c r="D6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -17544,10 +17669,10 @@
         <v>13.259007004900001</v>
       </c>
       <c r="D7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -17561,10 +17686,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -17578,10 +17703,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -17595,10 +17720,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -17612,10 +17737,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -17629,10 +17754,10 @@
         <v>9.8270133152000003</v>
       </c>
       <c r="D12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -17646,10 +17771,10 @@
         <v>16.083852431099999</v>
       </c>
       <c r="D13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -17663,10 +17788,10 @@
         <v>23.7838917399</v>
       </c>
       <c r="D14" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -17680,10 +17805,10 @@
         <v>19.015826593500002</v>
       </c>
       <c r="D15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E15" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -17697,10 +17822,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -17714,10 +17839,10 @@
         <v>2.8397278812</v>
       </c>
       <c r="D17" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E17" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -17731,10 +17856,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E18" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -17748,10 +17873,10 @@
         <v>21.495840399799999</v>
       </c>
       <c r="D19" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E19" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -17765,10 +17890,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E20" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -17782,10 +17907,10 @@
         <v>16.773605875099999</v>
       </c>
       <c r="D21" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E21" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -17799,10 +17924,10 @@
         <v>6.1391210271199999</v>
       </c>
       <c r="D22" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E22" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -17816,10 +17941,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E23" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -17833,10 +17958,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" t="s">
         <v>213</v>
-      </c>
-      <c r="E24" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -17850,10 +17975,10 @@
         <v>6.6931557720399999</v>
       </c>
       <c r="D25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -17867,10 +17992,10 @@
         <v>14.993078815900001</v>
       </c>
       <c r="D26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -17884,10 +18009,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E27" t="s">
         <v>214</v>
-      </c>
-      <c r="E27" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -17901,10 +18026,10 @@
         <v>7.3940763064599997</v>
       </c>
       <c r="D28" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E28" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -17918,10 +18043,10 @@
         <v>2.2566312277699998</v>
       </c>
       <c r="D29" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E29" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -17946,10 +18071,10 @@
         <v>18.0591005255</v>
       </c>
       <c r="D37" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E37" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -17963,10 +18088,10 @@
         <v>15.577471734</v>
       </c>
       <c r="D38" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E38" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -17980,10 +18105,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E39" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -17997,10 +18122,10 @@
         <v>11.5001887505</v>
       </c>
       <c r="D40" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E40" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -18014,10 +18139,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E41" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -18031,10 +18156,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E42" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -18048,10 +18173,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E43" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -18065,10 +18190,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E44" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -18082,10 +18207,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E45" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -18099,10 +18224,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E46" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -18116,10 +18241,10 @@
         <v>10.2765967546</v>
       </c>
       <c r="D47" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E47" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -18133,10 +18258,10 @@
         <v>15.6865747475</v>
       </c>
       <c r="D48" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E48" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -18150,10 +18275,10 @@
         <v>12.7234704201</v>
       </c>
       <c r="D49" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E49" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -18167,10 +18292,10 @@
         <v>15.626193667600001</v>
       </c>
       <c r="D50" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E50" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -18184,10 +18309,10 @@
         <v>14.7908769768</v>
       </c>
       <c r="D51" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E51" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -18201,10 +18326,10 @@
         <v>11.633098306699999</v>
       </c>
       <c r="D52" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E52" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -18218,10 +18343,10 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E53" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -18235,10 +18360,10 @@
         <v>11.19344117</v>
       </c>
       <c r="D54" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E54" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -18252,10 +18377,10 @@
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E55" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -18269,10 +18394,10 @@
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E56" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -18286,10 +18411,10 @@
         <v>10.8365383299</v>
       </c>
       <c r="D57" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E57" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -18303,10 +18428,10 @@
         <v>11.7304871973</v>
       </c>
       <c r="D58" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E58" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -18320,10 +18445,10 @@
         <v>0</v>
       </c>
       <c r="D59" t="s">
+        <v>210</v>
+      </c>
+      <c r="E59" t="s">
         <v>213</v>
-      </c>
-      <c r="E59" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -18337,10 +18462,10 @@
         <v>8.3783087109899999</v>
       </c>
       <c r="D60" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E60" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -18354,10 +18479,10 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E61" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -18371,10 +18496,10 @@
         <v>0</v>
       </c>
       <c r="D62" t="s">
+        <v>211</v>
+      </c>
+      <c r="E62" t="s">
         <v>214</v>
-      </c>
-      <c r="E62" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -18388,10 +18513,10 @@
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E63" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -18405,15 +18530,14 @@
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E64" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -18427,8 +18551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -18446,19 +18570,19 @@
         <v>195</v>
       </c>
       <c r="C1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" t="s">
         <v>196</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>197</v>
       </c>
-      <c r="E1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F1" t="s">
-        <v>199</v>
-      </c>
       <c r="G1" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -18808,7 +18932,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -18822,8 +18945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -18841,19 +18964,19 @@
         <v>195</v>
       </c>
       <c r="C1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" t="s">
         <v>196</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>197</v>
       </c>
-      <c r="E1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F1" t="s">
-        <v>199</v>
-      </c>
       <c r="G1" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -19433,7 +19556,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
